--- a/data/obras-cadastradas-DOUGLAS-CEZAR_v2.xlsx
+++ b/data/obras-cadastradas-DOUGLAS-CEZAR_v2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ROYALTY\_ANALYTICS_\Python Codes\Nas Nuvens App\nasnuvens-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7C5DDF-BA88-4FA1-93F3-B03B7EFD4F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86B224C-2266-4BC1-ADCA-D7C36F7A9DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A6FA0D54-048B-4B92-8897-C48693123731}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{A6FA0D54-048B-4B92-8897-C48693123731}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$224</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$223</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1078,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750FA41E-4BC6-485D-85BC-747E37A1B6AD}">
   <dimension ref="A1:D225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="D225" sqref="D225"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1722,10 +1722,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>13613451</v>
+        <v>24088018</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s">
         <v>121</v>
@@ -1736,10 +1736,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>24088018</v>
+        <v>15020538</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
         <v>121</v>
@@ -1750,10 +1750,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>15020538</v>
+        <v>8205212</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C48" t="s">
         <v>121</v>
@@ -1764,10 +1764,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>8205212</v>
+        <v>24287609</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
         <v>121</v>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>24287609</v>
+        <v>16542347</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
         <v>121</v>
@@ -1792,10 +1792,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>16542347</v>
+        <v>13375686</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
         <v>121</v>
@@ -1806,10 +1806,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>13375686</v>
+        <v>29698365</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s">
         <v>121</v>
@@ -1820,10 +1820,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>29698365</v>
+        <v>32056368</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C53" t="s">
         <v>121</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>32056368</v>
+        <v>25962956</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
         <v>121</v>
@@ -1848,10 +1848,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>25962956</v>
+        <v>16161643</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
         <v>121</v>
@@ -1862,10 +1862,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>16161643</v>
+        <v>24088041</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
         <v>121</v>
@@ -1876,10 +1876,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>24088041</v>
+        <v>25932789</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
         <v>121</v>
@@ -1890,10 +1890,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>25932789</v>
+        <v>16491386</v>
       </c>
       <c r="B58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
         <v>121</v>
@@ -1904,10 +1904,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>16491386</v>
+        <v>7198714</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="C59" t="s">
         <v>121</v>
@@ -1918,10 +1918,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>7198714</v>
+        <v>31901370</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="C60" t="s">
         <v>121</v>
@@ -1932,10 +1932,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>31901370</v>
+        <v>32457191</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C61" t="s">
         <v>121</v>
@@ -1946,10 +1946,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>32457191</v>
+        <v>34449440</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C62" t="s">
         <v>121</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>34449440</v>
+        <v>36100226</v>
       </c>
       <c r="B63" t="s">
         <v>34</v>
@@ -1974,10 +1974,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>36100226</v>
+        <v>16595702</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="C64" t="s">
         <v>121</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>16595702</v>
+        <v>13600678</v>
       </c>
       <c r="B65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C65" t="s">
         <v>121</v>
@@ -2002,10 +2002,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>13600678</v>
+        <v>27523769</v>
       </c>
       <c r="B66" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="C66" t="s">
         <v>121</v>
@@ -2016,10 +2016,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>27523769</v>
+        <v>15020543</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="C67" t="s">
         <v>121</v>
@@ -2030,10 +2030,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>15020543</v>
+        <v>4713272</v>
       </c>
       <c r="B68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C68" t="s">
         <v>121</v>
@@ -2044,10 +2044,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>4713272</v>
+        <v>29402709</v>
       </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C69" t="s">
         <v>121</v>
@@ -2058,10 +2058,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>29402709</v>
+        <v>4713279</v>
       </c>
       <c r="B70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C70" t="s">
         <v>121</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>4713279</v>
+        <v>29602765</v>
       </c>
       <c r="B71" t="s">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="C71" t="s">
         <v>121</v>
@@ -2086,10 +2086,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>29602765</v>
+        <v>14645728</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C72" t="s">
         <v>121</v>
@@ -2100,10 +2100,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>14645728</v>
+        <v>28902412</v>
       </c>
       <c r="B73" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="C73" t="s">
         <v>121</v>
@@ -2114,10 +2114,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>28902412</v>
+        <v>16924524</v>
       </c>
       <c r="B74" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="C74" t="s">
         <v>121</v>
@@ -2128,10 +2128,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>16924524</v>
+        <v>26809058</v>
       </c>
       <c r="B75" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="C75" t="s">
         <v>121</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>26809058</v>
+        <v>34541889</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C76" t="s">
         <v>121</v>
@@ -2156,10 +2156,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>34541889</v>
+        <v>30720832</v>
       </c>
       <c r="B77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C77" t="s">
         <v>121</v>
@@ -2170,10 +2170,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>30720832</v>
+        <v>29402708</v>
       </c>
       <c r="B78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C78" t="s">
         <v>121</v>
@@ -2184,10 +2184,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>29402708</v>
+        <v>8502492</v>
       </c>
       <c r="B79" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="C79" t="s">
         <v>121</v>
@@ -2198,10 +2198,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>8502492</v>
+        <v>27523771</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="C80" t="s">
         <v>121</v>
@@ -2212,10 +2212,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>27523771</v>
+        <v>17032055</v>
       </c>
       <c r="B81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C81" t="s">
         <v>121</v>
@@ -2226,10 +2226,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>17032055</v>
+        <v>6547410</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="C82" t="s">
         <v>121</v>
@@ -2240,10 +2240,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>6547410</v>
+        <v>32071339</v>
       </c>
       <c r="B83" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="C83" t="s">
         <v>121</v>
@@ -2254,10 +2254,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>32071339</v>
+        <v>31992713</v>
       </c>
       <c r="B84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C84" t="s">
         <v>121</v>
@@ -2268,10 +2268,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>31992713</v>
+        <v>31983963</v>
       </c>
       <c r="B85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C85" t="s">
         <v>121</v>
@@ -2282,10 +2282,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>31983963</v>
+        <v>16480706</v>
       </c>
       <c r="B86" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="C86" t="s">
         <v>121</v>
@@ -2296,10 +2296,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>16480706</v>
+        <v>31494072</v>
       </c>
       <c r="B87" t="s">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="C87" t="s">
         <v>121</v>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>31494072</v>
+        <v>7169431</v>
       </c>
       <c r="B88" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="C88" t="s">
         <v>121</v>
@@ -2324,10 +2324,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>7169431</v>
+        <v>20539490</v>
       </c>
       <c r="B89" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="C89" t="s">
         <v>121</v>
@@ -2338,10 +2338,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>20539490</v>
+        <v>18900242</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C90" t="s">
         <v>121</v>
@@ -2352,10 +2352,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>18900242</v>
+        <v>15271768</v>
       </c>
       <c r="B91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C91" t="s">
         <v>121</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>15271768</v>
+        <v>39017442</v>
       </c>
       <c r="B92" t="s">
         <v>50</v>
@@ -2380,10 +2380,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>39017442</v>
+        <v>13375687</v>
       </c>
       <c r="B93" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="C93" t="s">
         <v>121</v>
@@ -2394,10 +2394,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>13375687</v>
+        <v>6547411</v>
       </c>
       <c r="B94" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C94" t="s">
         <v>121</v>
@@ -2408,10 +2408,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>6547411</v>
+        <v>8205217</v>
       </c>
       <c r="B95" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C95" t="s">
         <v>121</v>
@@ -2422,10 +2422,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>8205217</v>
+        <v>30544265</v>
       </c>
       <c r="B96" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="C96" t="s">
         <v>121</v>
@@ -2436,13 +2436,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>30544265</v>
+        <v>38961642</v>
       </c>
       <c r="B97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C97" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D97" t="s">
         <v>121</v>
@@ -2450,13 +2450,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>38961642</v>
+        <v>33145175</v>
       </c>
       <c r="B98" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D98" t="s">
         <v>121</v>
@@ -2464,10 +2464,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>33145175</v>
+        <v>17120952</v>
       </c>
       <c r="B99" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="C99" t="s">
         <v>121</v>
@@ -2478,10 +2478,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>17120952</v>
+        <v>23022775</v>
       </c>
       <c r="B100" t="s">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="C100" t="s">
         <v>121</v>
@@ -2492,10 +2492,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>23022775</v>
+        <v>17515833</v>
       </c>
       <c r="B101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C101" t="s">
         <v>121</v>
@@ -2506,10 +2506,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>17515833</v>
+        <v>17902059</v>
       </c>
       <c r="B102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C102" t="s">
         <v>121</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>17902059</v>
+        <v>31281775</v>
       </c>
       <c r="B103" t="s">
         <v>56</v>
@@ -2534,10 +2534,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>31281775</v>
+        <v>7879492</v>
       </c>
       <c r="B104" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="C104" t="s">
         <v>121</v>
@@ -2548,10 +2548,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>7879492</v>
+        <v>27523777</v>
       </c>
       <c r="B105" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="C105" t="s">
         <v>121</v>
@@ -2562,10 +2562,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>27523777</v>
+        <v>5794839</v>
       </c>
       <c r="B106" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="C106" t="s">
         <v>121</v>
@@ -2576,10 +2576,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>5794839</v>
+        <v>26688023</v>
       </c>
       <c r="B107" t="s">
-        <v>165</v>
+        <v>58</v>
       </c>
       <c r="C107" t="s">
         <v>121</v>
@@ -2590,10 +2590,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>26688023</v>
+        <v>5794842</v>
       </c>
       <c r="B108" t="s">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="C108" t="s">
         <v>121</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>5794842</v>
+        <v>6547412</v>
       </c>
       <c r="B109" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C109" t="s">
         <v>121</v>
@@ -2618,10 +2618,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>6547412</v>
+        <v>11658532</v>
       </c>
       <c r="B110" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C110" t="s">
         <v>121</v>
@@ -2632,10 +2632,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>11658532</v>
+        <v>21946482</v>
       </c>
       <c r="B111" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="C111" t="s">
         <v>121</v>
@@ -2646,10 +2646,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>21946482</v>
+        <v>8502495</v>
       </c>
       <c r="B112" t="s">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="C112" t="s">
         <v>121</v>
@@ -2660,13 +2660,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>8502495</v>
+        <v>37328532</v>
       </c>
       <c r="B113" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="C113" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D113" t="s">
         <v>121</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>37328532</v>
+        <v>38898201</v>
       </c>
       <c r="B114" t="s">
         <v>60</v>
@@ -2688,13 +2688,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>38898201</v>
+        <v>34418141</v>
       </c>
       <c r="B115" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C115" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D115" t="s">
         <v>121</v>
@@ -2702,10 +2702,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>34418141</v>
+        <v>31760280</v>
       </c>
       <c r="B116" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C116" t="s">
         <v>121</v>
@@ -2716,10 +2716,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>31760280</v>
+        <v>6547413</v>
       </c>
       <c r="B117" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="C117" t="s">
         <v>121</v>
@@ -2730,10 +2730,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>6547413</v>
+        <v>13375688</v>
       </c>
       <c r="B118" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C118" t="s">
         <v>121</v>
@@ -2744,10 +2744,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>13375688</v>
+        <v>14581999</v>
       </c>
       <c r="B119" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C119" t="s">
         <v>121</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>14581999</v>
+        <v>13375691</v>
       </c>
       <c r="B120" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C120" t="s">
         <v>121</v>
@@ -2772,10 +2772,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>13375691</v>
+        <v>30720830</v>
       </c>
       <c r="B121" t="s">
-        <v>173</v>
+        <v>63</v>
       </c>
       <c r="C121" t="s">
         <v>121</v>
@@ -2786,10 +2786,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>30720830</v>
+        <v>7786979</v>
       </c>
       <c r="B122" t="s">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c r="C122" t="s">
         <v>121</v>
@@ -2800,10 +2800,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>7786979</v>
+        <v>7807348</v>
       </c>
       <c r="B123" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C123" t="s">
         <v>121</v>
@@ -2814,13 +2814,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>7807348</v>
+        <v>38233255</v>
       </c>
       <c r="B124" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="C124" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D124" t="s">
         <v>121</v>
@@ -2828,13 +2828,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>38233255</v>
+        <v>13113718</v>
       </c>
       <c r="B125" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C125" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D125" t="s">
         <v>121</v>
@@ -2842,10 +2842,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>13113718</v>
+        <v>6547414</v>
       </c>
       <c r="B126" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="C126" t="s">
         <v>121</v>
@@ -2856,10 +2856,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>6547414</v>
+        <v>13113721</v>
       </c>
       <c r="B127" t="s">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="C127" t="s">
         <v>121</v>
@@ -2870,10 +2870,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>13113721</v>
+        <v>31488948</v>
       </c>
       <c r="B128" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C128" t="s">
         <v>121</v>
@@ -2884,10 +2884,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>31488948</v>
+        <v>7879235</v>
       </c>
       <c r="B129" t="s">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="C129" t="s">
         <v>121</v>
@@ -2898,10 +2898,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>7879235</v>
+        <v>7655107</v>
       </c>
       <c r="B130" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C130" t="s">
         <v>121</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>7655107</v>
+        <v>13504717</v>
       </c>
       <c r="B131" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C131" t="s">
         <v>121</v>
@@ -2926,13 +2926,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>13504717</v>
+        <v>40446256</v>
       </c>
       <c r="B132" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
       <c r="C132" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D132" t="s">
         <v>121</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>40446256</v>
+        <v>40542658</v>
       </c>
       <c r="B133" t="s">
         <v>68</v>
@@ -2954,13 +2954,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>40542658</v>
+        <v>16767354</v>
       </c>
       <c r="B134" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C134" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D134" t="s">
         <v>121</v>
@@ -2968,10 +2968,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>16767354</v>
+        <v>17336528</v>
       </c>
       <c r="B135" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C135" t="s">
         <v>121</v>
@@ -2982,10 +2982,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>17336528</v>
+        <v>12521273</v>
       </c>
       <c r="B136" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="C136" t="s">
         <v>121</v>
@@ -2996,13 +2996,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>12521273</v>
+        <v>40143698</v>
       </c>
       <c r="B137" t="s">
-        <v>180</v>
+        <v>71</v>
       </c>
       <c r="C137" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D137" t="s">
         <v>121</v>
@@ -3010,13 +3010,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>40143698</v>
+        <v>16793097</v>
       </c>
       <c r="B138" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C138" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D138" t="s">
         <v>121</v>
@@ -3024,10 +3024,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>16793097</v>
+        <v>14861147</v>
       </c>
       <c r="B139" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="C139" t="s">
         <v>121</v>
@@ -3038,10 +3038,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>14861147</v>
+        <v>5794846</v>
       </c>
       <c r="B140" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C140" t="s">
         <v>121</v>
@@ -3052,10 +3052,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>5794846</v>
+        <v>29716950</v>
       </c>
       <c r="B141" t="s">
-        <v>182</v>
+        <v>73</v>
       </c>
       <c r="C141" t="s">
         <v>121</v>
@@ -3066,10 +3066,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>29716950</v>
+        <v>24063238</v>
       </c>
       <c r="B142" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C142" t="s">
         <v>121</v>
@@ -3080,10 +3080,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>24063238</v>
+        <v>25934138</v>
       </c>
       <c r="B143" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C143" t="s">
         <v>121</v>
@@ -3094,10 +3094,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>25934138</v>
+        <v>8205307</v>
       </c>
       <c r="B144" t="s">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="C144" t="s">
         <v>121</v>
@@ -3108,13 +3108,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>8205307</v>
+        <v>36213181</v>
       </c>
       <c r="B145" t="s">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="C145" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D145" t="s">
         <v>121</v>
@@ -3122,13 +3122,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>36213181</v>
+        <v>14645730</v>
       </c>
       <c r="B146" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="C146" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D146" t="s">
         <v>121</v>
@@ -3136,10 +3136,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>14645730</v>
+        <v>12521274</v>
       </c>
       <c r="B147" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C147" t="s">
         <v>121</v>
@@ -3150,10 +3150,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>12521274</v>
+        <v>13411029</v>
       </c>
       <c r="B148" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C148" t="s">
         <v>121</v>
@@ -3164,10 +3164,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>13411029</v>
+        <v>7807352</v>
       </c>
       <c r="B149" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C149" t="s">
         <v>121</v>
@@ -3178,10 +3178,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>7807352</v>
+        <v>13134911</v>
       </c>
       <c r="B150" t="s">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="C150" t="s">
         <v>121</v>
@@ -3192,10 +3192,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>13134911</v>
+        <v>27480596</v>
       </c>
       <c r="B151" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C151" t="s">
         <v>121</v>
@@ -3206,10 +3206,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>27480596</v>
+        <v>15089066</v>
       </c>
       <c r="B152" t="s">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="C152" t="s">
         <v>121</v>
@@ -3220,10 +3220,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>15089066</v>
+        <v>27480597</v>
       </c>
       <c r="B153" t="s">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="C153" t="s">
         <v>121</v>
@@ -3234,10 +3234,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>27480597</v>
+        <v>5794847</v>
       </c>
       <c r="B154" t="s">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="C154" t="s">
         <v>121</v>
@@ -3248,10 +3248,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>5794847</v>
+        <v>12734380</v>
       </c>
       <c r="B155" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C155" t="s">
         <v>121</v>
@@ -3262,10 +3262,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>12734380</v>
+        <v>7879493</v>
       </c>
       <c r="B156" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C156" t="s">
         <v>121</v>
@@ -3276,10 +3276,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>7879493</v>
+        <v>7807531</v>
       </c>
       <c r="B157" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C157" t="s">
         <v>121</v>
@@ -3290,10 +3290,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>7807531</v>
+        <v>17076934</v>
       </c>
       <c r="B158" t="s">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="C158" t="s">
         <v>121</v>
@@ -3304,10 +3304,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>17076934</v>
+        <v>18951404</v>
       </c>
       <c r="B159" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C159" t="s">
         <v>121</v>
@@ -3318,13 +3318,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>18951404</v>
+        <v>35234833</v>
       </c>
       <c r="B160" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C160" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D160" t="s">
         <v>121</v>
@@ -3332,13 +3332,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>35234833</v>
+        <v>16561950</v>
       </c>
       <c r="B161" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C161" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D161" t="s">
         <v>121</v>
@@ -3346,10 +3346,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>16561950</v>
+        <v>5793007</v>
       </c>
       <c r="B162" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C162" t="s">
         <v>121</v>
@@ -3360,10 +3360,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>5793007</v>
+        <v>23016404</v>
       </c>
       <c r="B163" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C163" t="s">
         <v>121</v>
@@ -3374,10 +3374,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>23016404</v>
+        <v>11984396</v>
       </c>
       <c r="B164" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C164" t="s">
         <v>121</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>11984396</v>
+        <v>18900247</v>
       </c>
       <c r="B165" t="s">
         <v>86</v>
@@ -3402,10 +3402,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>18900247</v>
+        <v>11259159</v>
       </c>
       <c r="B166" t="s">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="C166" t="s">
         <v>121</v>
@@ -3416,10 +3416,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>11259159</v>
+        <v>29421195</v>
       </c>
       <c r="B167" t="s">
-        <v>193</v>
+        <v>87</v>
       </c>
       <c r="C167" t="s">
         <v>121</v>
@@ -3430,10 +3430,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>29421195</v>
+        <v>18951405</v>
       </c>
       <c r="B168" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C168" t="s">
         <v>121</v>
@@ -3444,13 +3444,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>18951405</v>
+        <v>37262260</v>
       </c>
       <c r="B169" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C169" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D169" t="s">
         <v>121</v>
@@ -3458,13 +3458,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>37262260</v>
+        <v>7879494</v>
       </c>
       <c r="B170" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="C170" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D170" t="s">
         <v>121</v>
@@ -3472,10 +3472,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>7879494</v>
+        <v>12521276</v>
       </c>
       <c r="B171" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C171" t="s">
         <v>121</v>
@@ -3486,10 +3486,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>12521276</v>
+        <v>16161646</v>
       </c>
       <c r="B172" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="C172" t="s">
         <v>121</v>
@@ -3500,10 +3500,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>16161646</v>
+        <v>7879236</v>
       </c>
       <c r="B173" t="s">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="C173" t="s">
         <v>121</v>
@@ -3514,10 +3514,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>7879236</v>
+        <v>26749000</v>
       </c>
       <c r="B174" t="s">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="C174" t="s">
         <v>121</v>
@@ -3528,10 +3528,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>26749000</v>
+        <v>6547415</v>
       </c>
       <c r="B175" t="s">
-        <v>91</v>
+        <v>197</v>
       </c>
       <c r="C175" t="s">
         <v>121</v>
@@ -3542,10 +3542,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>6547415</v>
+        <v>14581994</v>
       </c>
       <c r="B176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C176" t="s">
         <v>121</v>
@@ -3556,10 +3556,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>14581994</v>
+        <v>25525273</v>
       </c>
       <c r="B177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C177" t="s">
         <v>121</v>
@@ -3570,10 +3570,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>25525273</v>
+        <v>24063239</v>
       </c>
       <c r="B178" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="C178" t="s">
         <v>121</v>
@@ -3584,10 +3584,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>24063239</v>
+        <v>7807351</v>
       </c>
       <c r="B179" t="s">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="C179" t="s">
         <v>121</v>
@@ -3598,10 +3598,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>7807351</v>
+        <v>26696094</v>
       </c>
       <c r="B180" t="s">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="C180" t="s">
         <v>121</v>
@@ -3612,10 +3612,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>26696094</v>
+        <v>13600763</v>
       </c>
       <c r="B181" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C181" t="s">
         <v>121</v>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>13600763</v>
+        <v>14645731</v>
       </c>
       <c r="B182" t="s">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="C182" t="s">
         <v>121</v>
@@ -3640,10 +3640,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>14645731</v>
+        <v>7807533</v>
       </c>
       <c r="B183" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C183" t="s">
         <v>121</v>
@@ -3654,10 +3654,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>7807533</v>
+        <v>19216757</v>
       </c>
       <c r="B184" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C184" t="s">
         <v>121</v>
@@ -3668,10 +3668,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>19216757</v>
+        <v>18900263</v>
       </c>
       <c r="B185" t="s">
-        <v>203</v>
+        <v>95</v>
       </c>
       <c r="C185" t="s">
         <v>121</v>
@@ -3682,10 +3682,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>18900263</v>
+        <v>7807158</v>
       </c>
       <c r="B186" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="C186" t="s">
         <v>121</v>
@@ -3696,10 +3696,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>7807158</v>
+        <v>30764708</v>
       </c>
       <c r="B187" t="s">
-        <v>204</v>
+        <v>96</v>
       </c>
       <c r="C187" t="s">
         <v>121</v>
@@ -3710,13 +3710,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>30764708</v>
+        <v>34340227</v>
       </c>
       <c r="B188" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C188" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D188" t="s">
         <v>121</v>
@@ -3724,13 +3724,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>34340227</v>
+        <v>7807535</v>
       </c>
       <c r="B189" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="C189" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D189" t="s">
         <v>121</v>
@@ -3738,10 +3738,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>7807535</v>
+        <v>10022402</v>
       </c>
       <c r="B190" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C190" t="s">
         <v>121</v>
@@ -3752,10 +3752,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>10022402</v>
+        <v>15020554</v>
       </c>
       <c r="B191" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C191" t="s">
         <v>121</v>
@@ -3766,10 +3766,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>15020554</v>
+        <v>24063240</v>
       </c>
       <c r="B192" t="s">
-        <v>207</v>
+        <v>98</v>
       </c>
       <c r="C192" t="s">
         <v>121</v>
@@ -3780,10 +3780,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>24063240</v>
+        <v>11050335</v>
       </c>
       <c r="B193" t="s">
-        <v>98</v>
+        <v>208</v>
       </c>
       <c r="C193" t="s">
         <v>121</v>
@@ -3794,10 +3794,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>11050335</v>
+        <v>30453428</v>
       </c>
       <c r="B194" t="s">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="C194" t="s">
         <v>121</v>
@@ -3808,10 +3808,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>30453428</v>
+        <v>11259169</v>
       </c>
       <c r="B195" t="s">
-        <v>99</v>
+        <v>209</v>
       </c>
       <c r="C195" t="s">
         <v>121</v>
@@ -3822,10 +3822,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>11259169</v>
+        <v>7772875</v>
       </c>
       <c r="B196" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C196" t="s">
         <v>121</v>
@@ -3836,10 +3836,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>7772875</v>
+        <v>15858838</v>
       </c>
       <c r="B197" t="s">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="C197" t="s">
         <v>121</v>
@@ -3850,10 +3850,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>15858838</v>
+        <v>24857051</v>
       </c>
       <c r="B198" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C198" t="s">
         <v>121</v>
@@ -3864,13 +3864,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>24857051</v>
+        <v>35051533</v>
       </c>
       <c r="B199" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C199" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D199" t="s">
         <v>121</v>
@@ -3878,13 +3878,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>35051533</v>
+        <v>25632409</v>
       </c>
       <c r="B200" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C200" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D200" t="s">
         <v>121</v>
@@ -3892,10 +3892,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>25632409</v>
+        <v>29100793</v>
       </c>
       <c r="B201" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C201" t="s">
         <v>121</v>
@@ -3906,10 +3906,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>29100793</v>
+        <v>12521237</v>
       </c>
       <c r="B202" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C202" t="s">
         <v>121</v>
@@ -3920,10 +3920,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>12521237</v>
+        <v>17120957</v>
       </c>
       <c r="B203" t="s">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="C203" t="s">
         <v>121</v>
@@ -3934,10 +3934,10 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>17120957</v>
+        <v>13600782</v>
       </c>
       <c r="B204" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C204" t="s">
         <v>121</v>
@@ -3948,10 +3948,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>13600782</v>
+        <v>34861531</v>
       </c>
       <c r="B205" t="s">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="C205" t="s">
         <v>121</v>
@@ -3962,10 +3962,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>34861531</v>
+        <v>14645732</v>
       </c>
       <c r="B206" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="C206" t="s">
         <v>121</v>
@@ -3976,10 +3976,10 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>14645732</v>
+        <v>8205227</v>
       </c>
       <c r="B207" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C207" t="s">
         <v>121</v>
@@ -3990,10 +3990,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>8205227</v>
+        <v>7807153</v>
       </c>
       <c r="B208" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C208" t="s">
         <v>121</v>
@@ -4004,10 +4004,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>7807153</v>
+        <v>18951403</v>
       </c>
       <c r="B209" t="s">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="C209" t="s">
         <v>121</v>
@@ -4018,10 +4018,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>18951403</v>
+        <v>35186450</v>
       </c>
       <c r="B210" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C210" t="s">
         <v>121</v>
@@ -4032,10 +4032,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>35186450</v>
+        <v>31780026</v>
       </c>
       <c r="B211" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C211" t="s">
         <v>121</v>
@@ -4046,10 +4046,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>31780026</v>
+        <v>19575257</v>
       </c>
       <c r="B212" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C212" t="s">
         <v>121</v>
@@ -4060,10 +4060,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>19575257</v>
+        <v>18900264</v>
       </c>
       <c r="B213" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C213" t="s">
         <v>121</v>
@@ -4074,10 +4074,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>18900264</v>
+        <v>13142886</v>
       </c>
       <c r="B214" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C214" t="s">
         <v>121</v>
@@ -4088,10 +4088,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>13142886</v>
+        <v>17456902</v>
       </c>
       <c r="B215" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C215" t="s">
         <v>121</v>
@@ -4102,10 +4102,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>17456902</v>
+        <v>29602767</v>
       </c>
       <c r="B216" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C216" t="s">
         <v>121</v>
@@ -4116,10 +4116,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>29602767</v>
+        <v>19151559</v>
       </c>
       <c r="B217" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C217" t="s">
         <v>121</v>
@@ -4130,10 +4130,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>19151559</v>
+        <v>7807539</v>
       </c>
       <c r="B218" t="s">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c r="C218" t="s">
         <v>121</v>
@@ -4144,10 +4144,10 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>7807539</v>
+        <v>15020547</v>
       </c>
       <c r="B219" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C219" t="s">
         <v>121</v>
@@ -4158,10 +4158,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>15020547</v>
+        <v>25631974</v>
       </c>
       <c r="B220" t="s">
-        <v>217</v>
+        <v>116</v>
       </c>
       <c r="C220" t="s">
         <v>121</v>
@@ -4172,10 +4172,10 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>25631974</v>
+        <v>16161648</v>
       </c>
       <c r="B221" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C221" t="s">
         <v>121</v>
@@ -4186,10 +4186,10 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>16161648</v>
+        <v>11259173</v>
       </c>
       <c r="B222" t="s">
-        <v>117</v>
+        <v>218</v>
       </c>
       <c r="C222" t="s">
         <v>121</v>
@@ -4200,10 +4200,10 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>11259173</v>
+        <v>21327169</v>
       </c>
       <c r="B223" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C223" t="s">
         <v>121</v>
@@ -4214,13 +4214,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>21327169</v>
+        <v>41272008</v>
       </c>
       <c r="B224" t="s">
-        <v>219</v>
+        <v>68</v>
       </c>
       <c r="C224" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D224" t="s">
         <v>121</v>
@@ -4228,20 +4228,20 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>41272008</v>
+        <v>41590407</v>
       </c>
       <c r="B225" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="C225" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D225" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D224" xr:uid="{750FA41E-4BC6-485D-85BC-747E37A1B6AD}"/>
+  <autoFilter ref="A1:D223" xr:uid="{750FA41E-4BC6-485D-85BC-747E37A1B6AD}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>